--- a/Груминг/Цены груминг.xlsx
+++ b/Груминг/Цены груминг.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAPOUS_BOSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAPOUS\Груминг\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA465A0-A129-42D9-8F89-76CD0E4C93CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65962A45-214A-48DF-A45E-E7E67FAAF1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Цена</t>
   </si>
@@ -69,25 +69,16 @@
     <t>Все пушистые большые породы</t>
   </si>
   <si>
-    <t xml:space="preserve"> +(100-200)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +(100)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> +( 100-200)</t>
   </si>
   <si>
     <t>450 и выше</t>
   </si>
   <si>
-    <t xml:space="preserve"> Подготовь собачку к осени!</t>
-  </si>
-  <si>
-    <t>Акция!        (до 09 октября 2020г)</t>
-  </si>
-  <si>
-    <t>Успейте записаться ! :)</t>
+    <t>Кокер-спаниель</t>
+  </si>
+  <si>
+    <t>Груминг прайс</t>
   </si>
 </sst>
 </file>
@@ -97,13 +88,6 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -127,8 +111,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +150,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -183,55 +180,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,261 +531,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="6" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7">
         <v>250</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D6" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="7" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
         <v>350</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D7" s="9">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="8" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7">
         <v>300</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D8" s="7">
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="9" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
         <v>450</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D9" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="10" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7">
         <v>550</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D10" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="11" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6">
-        <v>550</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9">
+        <v>600</v>
+      </c>
+      <c r="D11" s="9">
         <v>750</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="12" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7">
         <v>450</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D12" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9">
+        <v>250</v>
+      </c>
+      <c r="D13" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9">
+        <v>450</v>
+      </c>
+      <c r="D15" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6">
-        <v>250</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A16:B19"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="D16:D19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
